--- a/pred_ohlcv/54_21/2020-01-23 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 GNT ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>1314172.792290256</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1404875.153453297</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1241135.914953297</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1269743.015293668</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1277855.887719296</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1082784.707819296</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1157488.557719296</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1242145.257750669</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1262850.465150669</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1288321.062650669</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1362873.686650669</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1409352.423591776</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1257770.851391776</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1160188.399855933</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1182925.504221778</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1185199.864421778</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1152594.648821778</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1142352.932021778</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1143333.505521778</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1146662.277721778</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1123203.812721778</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1187139.592221778</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1102936.55513219</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1196363.92563219</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1243364.48923219</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1188144.83273219</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1204728.56283219</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1182913.50543219</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1115496.23373219</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1067738.80863219</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1150427.88443219</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1236643.98723219</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>865949.7676184105</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>873466.4550184106</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>827007.7462184106</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>703611.6564402852</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>400840.3149097968</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>400040.3149097968</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>395892.4741097968</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>388650.9185097968</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>364362.4870097968</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>374274.4870097968</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>372574.5769097968</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>370083.6843097968</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>355359.9956897079</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>393230.9955097967</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>393770.5059798786</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>395301.9291798786</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>390239.7285529946</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>390251.7285529946</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>385669.2794529945</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>313125.5361529945</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>320125.5361529945</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>324127.9360529945</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>335258.9888529945</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2152325.729993296</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1950684.744193296</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>1733420.241393297</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>1622503.885085692</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1351454.479501378</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1519730.056601379</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>1729005.014314004</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 GNT ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>533098.1551000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>562090.7083000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>557870.4840000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>803159.4171000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1314172.792290256</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1404875.153453297</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1241135.914953297</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1269743.015293668</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1277855.887719296</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1082784.707819296</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1157488.557719296</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1242145.257750669</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1262850.465150669</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1288321.062650669</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1362873.686650669</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1409352.423591776</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1257770.851391776</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1160188.399855933</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1182925.504221778</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1185199.864421778</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1152594.648821778</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1142352.932021778</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1143333.505521778</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1146662.277721778</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1123203.812721778</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1187139.592221778</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1102936.55513219</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1196363.92563219</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1243364.48923219</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1188144.83273219</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1204728.56283219</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1182913.50543219</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1115496.23373219</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1067738.80863219</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1150427.88443219</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1236643.98723219</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>865949.7676184105</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>873466.4550184106</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>827007.7462184106</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>703611.6564402852</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>400840.3149097968</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>400040.3149097968</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>396053.2671097968</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>395892.4741097968</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>388650.9185097968</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>364362.4870097968</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>374274.4870097968</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>372574.5769097968</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>370083.6843097968</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>370148.412389708</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>354131.3601897079</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>355359.9956897079</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>393230.9955097967</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>393770.5059798786</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>395301.9291798786</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>395363.4981529946</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>390239.7285529946</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>390251.7285529946</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>385669.2794529945</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>313125.5361529945</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>320125.5361529945</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>324127.9360529945</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>335258.9888529945</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2077066.570412492</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2391596.890900969</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2214320.662900969</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2152325.729993296</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1950684.744193296</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>1733420.241393297</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>1622503.885085692</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1351454.479501378</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1519730.056601379</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>1729005.014314004</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>1673897.520414004</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1603399.257671222</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1618876.063611489</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1603064.598111489</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>1479004.234238274</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1412619.645538274</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>1486247.749661092</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>1460299.641261092</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>1475463.302389869</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>1465364.713389869</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>1413164.874589869</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1407164.874589869</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1385002.260989869</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>1460646.323835599</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1501389.561835599</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1447637.905835599</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1452649.614435599</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1433246.453035599</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
